--- a/Documentos/compras2.xlsx
+++ b/Documentos/compras2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A4BFD9F-4239-42B9-A709-BA8D37F199FE}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04021077-764D-4F8D-9BA1-867FDCEAF519}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,9 +516,6 @@
     <t>https://www.mouser.mx/ProductDetail/Broadcom-Avago/HCPL-3140-000E?qs=sGAEpiMZZMsx4%2FFVpd5sGeT8hubp%2Fa3G</t>
   </si>
   <si>
-    <t>TAP225K025SCS</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -621,9 +618,6 @@
     <t>https://mexico.newark.com/vishay/mal205859471e3/cap-470uf-100v-alu-elec-snap-in/dp/64AJ4520</t>
   </si>
   <si>
-    <t>https://mexico.newark.com/avx/tap225k025scs/tantalum-capacitor-2-2uf-25v-6/dp/80H9199?ost=tap225k025scs</t>
-  </si>
-  <si>
     <t>https://mexico.newark.com/multicomp-pro/mcgpr200v106m10x13/aluminum-electrolytic-capacitor/dp/97M4089?st=capacitor%20electrol%C3%ADtico,%2010%20%C2%B5f,%20200%20v</t>
   </si>
   <si>
@@ -682,6 +676,12 @@
   </si>
   <si>
     <t>Cabezal</t>
+  </si>
+  <si>
+    <t>FG28X7R1A225KRT00</t>
+  </si>
+  <si>
+    <t>https://www.mouser.mx/ProductDetail/TDK/FG28X7R1A225KRT00?qs=vNwBHymccZ8PqCyjp8sLsg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1651,7 +1651,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>53</v>
@@ -1666,26 +1666,26 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="3">
         <v>0.97099999999999997</v>
       </c>
       <c r="F3" s="3">
         <f>E3*A3</f>
-        <v>21.361999999999998</v>
+        <v>31.071999999999999</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -1694,13 +1694,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3">
         <v>4.2000000000000003E-2</v>
@@ -1710,7 +1710,7 @@
         <v>0.252</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1719,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3">
         <v>0.67900000000000005</v>
@@ -1735,7 +1735,7 @@
         <v>4.0739999999999998</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -1744,23 +1744,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3">
         <v>0.23</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F13" si="0">E6*A6</f>
+        <f t="shared" ref="F6:F12" si="0">E6*A6</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1769,13 +1769,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3">
         <v>1.5</v>
@@ -1785,7 +1785,7 @@
         <v>90</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1794,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3">
         <v>13.2</v>
@@ -1819,13 +1819,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3">
         <v>1.86</v>
@@ -1835,7 +1835,7 @@
         <v>11.16</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1844,13 +1844,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3">
         <v>1.81</v>
@@ -1860,7 +1860,7 @@
         <v>10.86</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -1869,13 +1869,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="3">
         <v>0.42099999999999999</v>
@@ -1885,32 +1885,32 @@
         <v>9.2620000000000005</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
-        <v>0.498</v>
+        <v>8.08</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>20.916</v>
+        <v>96.960000000000008</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1919,167 +1919,167 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3">
-        <v>8.08</v>
+        <v>5.29</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>96.960000000000008</v>
+        <f>E13*A13</f>
+        <v>63.480000000000004</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3">
-        <v>5.29</v>
+        <v>0.127</v>
       </c>
       <c r="F14" s="3">
         <f>E14*A14</f>
-        <v>63.480000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.127</v>
-      </c>
-      <c r="F15" s="3">
-        <f>E15*A15</f>
-        <v>5.08</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="3"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>55</v>
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="3">
+        <v>14.31</v>
+      </c>
+      <c r="F19" s="3">
+        <f>E19*A19</f>
+        <v>143.1</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3">
-        <v>14.31</v>
+        <v>1.08</v>
       </c>
       <c r="F20" s="3">
-        <f>E20*A20</f>
-        <v>143.1</v>
+        <f t="shared" ref="F20:F28" si="1">E20*A20</f>
+        <v>17.28</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3">
-        <v>1.08</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ref="F21:F28" si="1">E21*A21</f>
-        <v>17.28</v>
+        <f t="shared" si="1"/>
+        <v>4.7880000000000003</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2088,23 +2088,23 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E22" s="3">
-        <v>0.39900000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>4.7880000000000003</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -2113,75 +2113,85 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="3">
-        <v>2.52</v>
+        <v>4.54</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>30.240000000000002</v>
+        <v>54.480000000000004</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="3">
-        <v>4.54</v>
+        <v>1.74</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>54.480000000000004</v>
+        <v>38.28</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3">
-        <v>1.74</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>38.28</v>
+        <f>E25*A25</f>
+        <v>8.6939999999999991</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -2189,10 +2199,10 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="3">
         <v>9.19</v>
@@ -2202,7 +2212,7 @@
         <v>91.899999999999991</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -2212,10 +2222,10 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3">
         <v>9.19</v>
@@ -2225,7 +2235,7 @@
         <v>91.899999999999991</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -2241,7 +2251,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2260,7 +2270,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>53</v>
@@ -2274,23 +2284,25 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3">
         <v>39</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ref="F32" si="2">E32*A32</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -2303,11 +2315,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="3">
         <f>SUM(F3:F32)</f>
-        <v>965.15399999999988</v>
+        <v>1118.6419999999998</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -2316,28 +2328,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{59CD80FA-80FD-4FD3-9DB4-A8E6B45663A7}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{59CD80FA-80FD-4FD3-9DB4-A8E6B45663A7}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{E538F853-D31D-4387-AAA3-C8F2ADCCEA5A}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{9FDD5B4F-67FD-4E8F-A0C1-8DEE4561F372}"/>
-    <hyperlink ref="G21" r:id="rId4" xr:uid="{4292194B-4E83-47BB-8685-7AC15EE5D9B8}"/>
+    <hyperlink ref="G20" r:id="rId4" xr:uid="{4292194B-4E83-47BB-8685-7AC15EE5D9B8}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{658D4AEF-8458-4417-BE42-4127263E6D27}"/>
     <hyperlink ref="G9" r:id="rId6" xr:uid="{20C6F970-1403-44D0-97CD-9A6F37FA8BBC}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{AB666692-53ED-4E91-BAD5-9BB80A6BC8EA}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{EEA0D363-7EEE-42EF-A827-983127714C04}"/>
+    <hyperlink ref="G22" r:id="rId7" xr:uid="{AB666692-53ED-4E91-BAD5-9BB80A6BC8EA}"/>
+    <hyperlink ref="G23" r:id="rId8" xr:uid="{EEA0D363-7EEE-42EF-A827-983127714C04}"/>
     <hyperlink ref="G8" r:id="rId9" xr:uid="{A8FD3759-0003-480A-A07B-813B161045AB}"/>
-    <hyperlink ref="G25" r:id="rId10" xr:uid="{86C222CF-9B23-4E22-9CCB-C31AAC1499FC}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{5A628575-0BA9-491E-8862-FBC39E376599}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{D0B3357C-1602-48C3-8DE6-85E6C0D15329}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{E34DBC73-409F-4AD4-9A2E-177F034CC1A6}"/>
-    <hyperlink ref="G4" r:id="rId14" xr:uid="{CE74B561-4330-47B4-B525-79D99532E8C4}"/>
-    <hyperlink ref="G5" r:id="rId15" xr:uid="{7E62929A-610B-4EC9-9B01-8237ACA4FD5B}"/>
-    <hyperlink ref="G10" r:id="rId16" xr:uid="{4ABF439F-6CF0-4B0B-9F86-E85DB2BF5B98}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{5F5AA19C-CC46-4CA6-923D-888465498C34}"/>
-    <hyperlink ref="G22" r:id="rId18" xr:uid="{10CC0A6A-464B-479E-9026-112F5DA50FBA}"/>
-    <hyperlink ref="G27" r:id="rId19" xr:uid="{771E1F2C-DF17-4272-A422-CCD8709D62FE}"/>
-    <hyperlink ref="G28" r:id="rId20" xr:uid="{0FBC039E-2F92-4B8E-9867-3DBBBF500629}"/>
-    <hyperlink ref="G32" r:id="rId21" location="order-start-development" xr:uid="{5890E3A0-822D-44E9-9D9E-654792F57B87}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{CC8E4E0E-657D-4E55-9846-CBA70636A97A}"/>
+    <hyperlink ref="G24" r:id="rId10" xr:uid="{86C222CF-9B23-4E22-9CCB-C31AAC1499FC}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{5A628575-0BA9-491E-8862-FBC39E376599}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{D0B3357C-1602-48C3-8DE6-85E6C0D15329}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{CE74B561-4330-47B4-B525-79D99532E8C4}"/>
+    <hyperlink ref="G5" r:id="rId14" xr:uid="{7E62929A-610B-4EC9-9B01-8237ACA4FD5B}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{4ABF439F-6CF0-4B0B-9F86-E85DB2BF5B98}"/>
+    <hyperlink ref="G11" r:id="rId16" xr:uid="{5F5AA19C-CC46-4CA6-923D-888465498C34}"/>
+    <hyperlink ref="G21" r:id="rId17" xr:uid="{10CC0A6A-464B-479E-9026-112F5DA50FBA}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{771E1F2C-DF17-4272-A422-CCD8709D62FE}"/>
+    <hyperlink ref="G28" r:id="rId19" xr:uid="{0FBC039E-2F92-4B8E-9867-3DBBBF500629}"/>
+    <hyperlink ref="G32" r:id="rId20" location="order-start-development" xr:uid="{5890E3A0-822D-44E9-9D9E-654792F57B87}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{CC8E4E0E-657D-4E55-9846-CBA70636A97A}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{CCFFABAE-F1F5-44D4-A5C0-5AD63035FD33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>

--- a/Documentos/compras2.xlsx
+++ b/Documentos/compras2.xlsx
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Documentos/compras2.xlsx
+++ b/Documentos/compras2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04021077-764D-4F8D-9BA1-867FDCEAF519}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F24750-EB9A-4171-8B0F-B6E89D4DDF4B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>mouser</t>
   </si>
@@ -657,18 +657,6 @@
     <t>https://www.mouser.mx/ProductDetail/Pomona-Electronics/B-36-2?qs=vF78I%252BjhbY%252B9bCHX6HNJSQ%3D%3D</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>LAUNCHXL-F28379D — C2000 Delfino MCUs F28379D</t>
-  </si>
-  <si>
-    <t>Tarjeta</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/tool/LAUNCHXL-F28379D#order-start-development</t>
-  </si>
-  <si>
     <t>https://mexico.newark.com/multicomp-pro/2213s-10g/board-board-connector-header-10/dp/08N6791?st=cabezal%20pin%20tarjeta%20a%20tarjeta</t>
   </si>
   <si>
@@ -682,6 +670,12 @@
   </si>
   <si>
     <t>https://www.mouser.mx/ProductDetail/TDK/FG28X7R1A225KRT00?qs=vNwBHymccZ8PqCyjp8sLsg%3D%3D</t>
+  </si>
+  <si>
+    <t>MPMLR50V104KX7RTB5</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/multicomp-pro/mpmlr50v104kx7rtb5/capacitor-0-1uf-50v-x7r-radial/dp/68AH8540</t>
   </si>
 </sst>
 </file>
@@ -719,7 +713,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,12 +744,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -770,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,9 +793,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1612,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECA358C-36EF-45EC-8DF8-C6314984611B}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1740,102 +1725,100 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="3">
-        <v>0.23</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F12" si="0">E6*A6</f>
-        <v>1.3800000000000001</v>
+        <f>E6*A6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F13" si="0">E7*A7</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>60</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>1.5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>13.2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>158.39999999999998</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.86</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>11.16</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1844,73 +1827,73 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="3">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>10.86</v>
+        <v>11.16</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3">
-        <v>0.42099999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>9.2620000000000005</v>
+        <v>10.86</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E12" s="3">
-        <v>8.08</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>96.960000000000008</v>
+        <v>9.2620000000000005</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1921,165 +1904,165 @@
       <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3">
-        <v>5.29</v>
+        <v>8.08</v>
       </c>
       <c r="F13" s="3">
-        <f>E13*A13</f>
-        <v>63.480000000000004</v>
+        <f t="shared" si="0"/>
+        <v>96.960000000000008</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3">
-        <v>0.127</v>
+        <v>5.29</v>
       </c>
       <c r="F14" s="3">
         <f>E14*A14</f>
+        <v>63.480000000000004</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="F15" s="3">
+        <f>E15*A15</f>
         <v>5.08</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="3"/>
+      <c r="G15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="3">
-        <v>14.31</v>
-      </c>
-      <c r="F19" s="3">
-        <f>E19*A19</f>
-        <v>143.1</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E20" s="3">
-        <v>1.08</v>
+        <v>14.31</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20:F28" si="1">E20*A20</f>
-        <v>17.28</v>
+        <f>E20*A20</f>
+        <v>143.1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="3">
-        <v>0.39900000000000002</v>
+        <v>1.08</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>4.7880000000000003</v>
+        <f t="shared" ref="F21:F29" si="1">E21*A21</f>
+        <v>17.28</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2091,20 +2074,20 @@
         <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3">
-        <v>2.52</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>30.240000000000002</v>
+        <v>4.7880000000000003</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -2116,104 +2099,106 @@
         <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="3">
-        <v>4.54</v>
+        <v>2.52</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>54.480000000000004</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3">
-        <v>1.74</v>
+        <v>4.54</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>38.28</v>
+        <v>54.480000000000004</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>117</v>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>38.28</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F25" s="3">
-        <f>E25*A25</f>
+      <c r="F26" s="3">
+        <f>E26*A26</f>
         <v>8.6939999999999991</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>10</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="3">
-        <v>9.19</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="1"/>
-        <v>91.899999999999991</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2222,7 +2207,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>83</v>
@@ -2235,121 +2220,87 @@
         <v>91.899999999999991</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9.19</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>91.899999999999991</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="3">
-        <v>39</v>
+      <c r="A32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32" si="2">E32*A32</f>
-        <v>156</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <f>SUM(F3:F30)</f>
+        <v>962.64199999999994</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="3">
-        <f>SUM(F3:F32)</f>
-        <v>1118.6419999999998</v>
-      </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" xr:uid="{59CD80FA-80FD-4FD3-9DB4-A8E6B45663A7}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{59CD80FA-80FD-4FD3-9DB4-A8E6B45663A7}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{E538F853-D31D-4387-AAA3-C8F2ADCCEA5A}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{9FDD5B4F-67FD-4E8F-A0C1-8DEE4561F372}"/>
-    <hyperlink ref="G20" r:id="rId4" xr:uid="{4292194B-4E83-47BB-8685-7AC15EE5D9B8}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{658D4AEF-8458-4417-BE42-4127263E6D27}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{20C6F970-1403-44D0-97CD-9A6F37FA8BBC}"/>
-    <hyperlink ref="G22" r:id="rId7" xr:uid="{AB666692-53ED-4E91-BAD5-9BB80A6BC8EA}"/>
-    <hyperlink ref="G23" r:id="rId8" xr:uid="{EEA0D363-7EEE-42EF-A827-983127714C04}"/>
-    <hyperlink ref="G8" r:id="rId9" xr:uid="{A8FD3759-0003-480A-A07B-813B161045AB}"/>
-    <hyperlink ref="G24" r:id="rId10" xr:uid="{86C222CF-9B23-4E22-9CCB-C31AAC1499FC}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{5A628575-0BA9-491E-8862-FBC39E376599}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{D0B3357C-1602-48C3-8DE6-85E6C0D15329}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{9FDD5B4F-67FD-4E8F-A0C1-8DEE4561F372}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{4292194B-4E83-47BB-8685-7AC15EE5D9B8}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{658D4AEF-8458-4417-BE42-4127263E6D27}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{20C6F970-1403-44D0-97CD-9A6F37FA8BBC}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{AB666692-53ED-4E91-BAD5-9BB80A6BC8EA}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{EEA0D363-7EEE-42EF-A827-983127714C04}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{A8FD3759-0003-480A-A07B-813B161045AB}"/>
+    <hyperlink ref="G25" r:id="rId10" xr:uid="{86C222CF-9B23-4E22-9CCB-C31AAC1499FC}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{5A628575-0BA9-491E-8862-FBC39E376599}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{D0B3357C-1602-48C3-8DE6-85E6C0D15329}"/>
     <hyperlink ref="G4" r:id="rId13" xr:uid="{CE74B561-4330-47B4-B525-79D99532E8C4}"/>
     <hyperlink ref="G5" r:id="rId14" xr:uid="{7E62929A-610B-4EC9-9B01-8237ACA4FD5B}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{4ABF439F-6CF0-4B0B-9F86-E85DB2BF5B98}"/>
-    <hyperlink ref="G11" r:id="rId16" xr:uid="{5F5AA19C-CC46-4CA6-923D-888465498C34}"/>
-    <hyperlink ref="G21" r:id="rId17" xr:uid="{10CC0A6A-464B-479E-9026-112F5DA50FBA}"/>
-    <hyperlink ref="G27" r:id="rId18" xr:uid="{771E1F2C-DF17-4272-A422-CCD8709D62FE}"/>
-    <hyperlink ref="G28" r:id="rId19" xr:uid="{0FBC039E-2F92-4B8E-9867-3DBBBF500629}"/>
-    <hyperlink ref="G32" r:id="rId20" location="order-start-development" xr:uid="{5890E3A0-822D-44E9-9D9E-654792F57B87}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{CC8E4E0E-657D-4E55-9846-CBA70636A97A}"/>
-    <hyperlink ref="G25" r:id="rId22" xr:uid="{CCFFABAE-F1F5-44D4-A5C0-5AD63035FD33}"/>
+    <hyperlink ref="G11" r:id="rId15" xr:uid="{4ABF439F-6CF0-4B0B-9F86-E85DB2BF5B98}"/>
+    <hyperlink ref="G12" r:id="rId16" xr:uid="{5F5AA19C-CC46-4CA6-923D-888465498C34}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{10CC0A6A-464B-479E-9026-112F5DA50FBA}"/>
+    <hyperlink ref="G28" r:id="rId18" xr:uid="{771E1F2C-DF17-4272-A422-CCD8709D62FE}"/>
+    <hyperlink ref="G29" r:id="rId19" xr:uid="{0FBC039E-2F92-4B8E-9867-3DBBBF500629}"/>
+    <hyperlink ref="G15" r:id="rId20" xr:uid="{CC8E4E0E-657D-4E55-9846-CBA70636A97A}"/>
+    <hyperlink ref="G26" r:id="rId21" xr:uid="{CCFFABAE-F1F5-44D4-A5C0-5AD63035FD33}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{35ED8D9D-FB7C-48BD-AE83-374989CD7714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>

--- a/Documentos/compras2.xlsx
+++ b/Documentos/compras2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F24750-EB9A-4171-8B0F-B6E89D4DDF4B}"/>
+  <xr:revisionPtr revIDLastSave="517" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C78A166B-5EEB-4FFB-BAAF-0087371424E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1725,9 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>80</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -1740,7 +1742,7 @@
       </c>
       <c r="F6" s="3">
         <f>E6*A6</f>
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>116</v>
@@ -2270,7 +2272,7 @@
       </c>
       <c r="F32" s="3">
         <f>SUM(F3:F30)</f>
-        <v>962.64199999999994</v>
+        <v>966.88199999999995</v>
       </c>
       <c r="G32" s="8"/>
     </row>

--- a/Documentos/compras2.xlsx
+++ b/Documentos/compras2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Documentos/compras2.xlsx
+++ b/Documentos/compras2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="517" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C78A166B-5EEB-4FFB-BAAF-0087371424E2}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C36D165F-B5CA-4EAD-B27A-EC66CD137CF3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>mouser</t>
   </si>
@@ -676,6 +676,21 @@
   </si>
   <si>
     <t>https://mexico.newark.com/multicomp-pro/mpmlr50v104kx7rtb5/capacitor-0-1uf-50v-x7r-radial/dp/68AH8540</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>BC817-25,215</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/nexperia/bc817-25-215/trans-npn-45v-0-5a-0-25w-to-236ab/dp/62X8748?st=bc817</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/nexperia/bc807-25-215/trans-pnp-45v-0-5a-0-25w-sot-23/dp/84AC6530?st=bc807</t>
+  </si>
+  <si>
+    <t>BC807-25,215</t>
   </si>
 </sst>
 </file>
@@ -1597,16 +1612,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECA358C-36EF-45EC-8DF8-C6314984611B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
@@ -1974,147 +1989,143 @@
       </c>
       <c r="H15" s="3"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F17" si="1">E16*A16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
+      <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="3">
-        <v>14.31</v>
-      </c>
-      <c r="F20" s="3">
-        <f>E20*A20</f>
-        <v>143.1</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" ref="F21:F29" si="1">E21*A21</f>
-        <v>17.28</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3">
-        <v>0.39900000000000002</v>
+        <v>14.31</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>4.7880000000000003</v>
+        <f>E22*A22</f>
+        <v>143.1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>2.52</v>
+        <v>1.08</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>30.240000000000002</v>
+        <f t="shared" ref="F23:F31" si="2">E23*A23</f>
+        <v>17.28</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -2126,185 +2137,237 @@
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E24" s="3">
-        <v>4.54</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>54.480000000000004</v>
+        <f t="shared" si="2"/>
+        <v>4.7880000000000003</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="3">
-        <v>1.74</v>
+        <v>2.52</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>38.28</v>
+        <f t="shared" si="2"/>
+        <v>30.240000000000002</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>113</v>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3">
-        <v>0.20699999999999999</v>
+        <v>4.54</v>
       </c>
       <c r="F26" s="3">
-        <f>E26*A26</f>
-        <v>8.6939999999999991</v>
+        <f t="shared" si="2"/>
+        <v>54.480000000000004</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>38.28</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F28" s="3">
+        <f>E28*A28</f>
+        <v>8.6939999999999991</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>9.19</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
         <v>91.899999999999991</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>9.19</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
         <v>91.899999999999991</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="8"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="3">
-        <f>SUM(F3:F30)</f>
+      <c r="F34" s="3">
+        <f>SUM(F3:F32)</f>
         <v>966.88199999999995</v>
       </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{59CD80FA-80FD-4FD3-9DB4-A8E6B45663A7}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{59CD80FA-80FD-4FD3-9DB4-A8E6B45663A7}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{E538F853-D31D-4387-AAA3-C8F2ADCCEA5A}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{9FDD5B4F-67FD-4E8F-A0C1-8DEE4561F372}"/>
-    <hyperlink ref="G21" r:id="rId4" xr:uid="{4292194B-4E83-47BB-8685-7AC15EE5D9B8}"/>
+    <hyperlink ref="G23" r:id="rId4" xr:uid="{4292194B-4E83-47BB-8685-7AC15EE5D9B8}"/>
     <hyperlink ref="G8" r:id="rId5" xr:uid="{658D4AEF-8458-4417-BE42-4127263E6D27}"/>
     <hyperlink ref="G10" r:id="rId6" xr:uid="{20C6F970-1403-44D0-97CD-9A6F37FA8BBC}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{AB666692-53ED-4E91-BAD5-9BB80A6BC8EA}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{EEA0D363-7EEE-42EF-A827-983127714C04}"/>
+    <hyperlink ref="G25" r:id="rId7" xr:uid="{AB666692-53ED-4E91-BAD5-9BB80A6BC8EA}"/>
+    <hyperlink ref="G26" r:id="rId8" xr:uid="{EEA0D363-7EEE-42EF-A827-983127714C04}"/>
     <hyperlink ref="G9" r:id="rId9" xr:uid="{A8FD3759-0003-480A-A07B-813B161045AB}"/>
-    <hyperlink ref="G25" r:id="rId10" xr:uid="{86C222CF-9B23-4E22-9CCB-C31AAC1499FC}"/>
+    <hyperlink ref="G27" r:id="rId10" xr:uid="{86C222CF-9B23-4E22-9CCB-C31AAC1499FC}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{5A628575-0BA9-491E-8862-FBC39E376599}"/>
     <hyperlink ref="G13" r:id="rId12" xr:uid="{D0B3357C-1602-48C3-8DE6-85E6C0D15329}"/>
     <hyperlink ref="G4" r:id="rId13" xr:uid="{CE74B561-4330-47B4-B525-79D99532E8C4}"/>
     <hyperlink ref="G5" r:id="rId14" xr:uid="{7E62929A-610B-4EC9-9B01-8237ACA4FD5B}"/>
     <hyperlink ref="G11" r:id="rId15" xr:uid="{4ABF439F-6CF0-4B0B-9F86-E85DB2BF5B98}"/>
     <hyperlink ref="G12" r:id="rId16" xr:uid="{5F5AA19C-CC46-4CA6-923D-888465498C34}"/>
-    <hyperlink ref="G22" r:id="rId17" xr:uid="{10CC0A6A-464B-479E-9026-112F5DA50FBA}"/>
-    <hyperlink ref="G28" r:id="rId18" xr:uid="{771E1F2C-DF17-4272-A422-CCD8709D62FE}"/>
-    <hyperlink ref="G29" r:id="rId19" xr:uid="{0FBC039E-2F92-4B8E-9867-3DBBBF500629}"/>
+    <hyperlink ref="G24" r:id="rId17" xr:uid="{10CC0A6A-464B-479E-9026-112F5DA50FBA}"/>
+    <hyperlink ref="G30" r:id="rId18" xr:uid="{771E1F2C-DF17-4272-A422-CCD8709D62FE}"/>
+    <hyperlink ref="G31" r:id="rId19" xr:uid="{0FBC039E-2F92-4B8E-9867-3DBBBF500629}"/>
     <hyperlink ref="G15" r:id="rId20" xr:uid="{CC8E4E0E-657D-4E55-9846-CBA70636A97A}"/>
-    <hyperlink ref="G26" r:id="rId21" xr:uid="{CCFFABAE-F1F5-44D4-A5C0-5AD63035FD33}"/>
+    <hyperlink ref="G28" r:id="rId21" xr:uid="{CCFFABAE-F1F5-44D4-A5C0-5AD63035FD33}"/>
     <hyperlink ref="G6" r:id="rId22" xr:uid="{35ED8D9D-FB7C-48BD-AE83-374989CD7714}"/>
+    <hyperlink ref="G16" r:id="rId23" xr:uid="{4B9729C9-BB16-48D6-B714-40242336D110}"/>
+    <hyperlink ref="G17" r:id="rId24" xr:uid="{772A7BDC-2D3F-4B67-B486-02F1C438BEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>